--- a/Python/Simplex_Minty2.xlsx
+++ b/Python/Simplex_Minty2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="274">
   <si>
     <t>it</t>
   </si>
@@ -28,22 +28,814 @@
     <t>Current cost value</t>
   </si>
   <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>[0, 3]</t>
-  </si>
-  <si>
-    <t>[0, 1]</t>
-  </si>
-  <si>
-    <t>[ 0.  0. 32. 48.]</t>
-  </si>
-  <si>
-    <t>[16.  0.  0. 16.]</t>
-  </si>
-  <si>
-    <t>[12.  8.  0.  0.]</t>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 0, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 0, 1, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 0, 1, 2, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 3, 70, 71, 0, 1, 2, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 8, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 8, 76, 9, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 10, 4, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 65, 66, 67, 68, 10, 4, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 65, 66, 67, 68, 3, 4, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 65, 66, 67, 68, 3, 6, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 7, 66, 67, 68, 3, 6, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 1, 2, 8, 5, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 1, 2, 8, 4, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 9, 78, 79, 80, 81, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 9, 78, 79, 80, 7, 12, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 9, 78, 79, 80, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 9, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 66, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 5, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 63, 11, 13, 16, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 6, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 9, 88, 89, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 9, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 5, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 4, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 9, 1, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 9, 12, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 4, 12, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 4, 20, 78, 79, 15, 7, 10, 83, 84, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 6, 18, 71, 0, 14, 2, 8, 4, 20, 78, 79, 15, 7, 10, 83, 22, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 1, 18, 71, 0, 14, 2, 8, 4, 20, 78, 79, 15, 7, 10, 83, 22, 85, 86, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 1, 18, 71, 0, 14, 2, 8, 4, 20, 78, 79, 15, 7, 10, 83, 22, 85, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 4, 20, 78, 79, 15, 7, 10, 83, 22, 85, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 85, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[58, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 59, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 60, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 61, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 62, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 88, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 90, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 67, 68, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 67, 68, 4, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 91, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 67, 68, 4, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 68, 4, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 4, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 7, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 71, 0, 14, 2, 8, 12, 20, 78, 79, 15, 30, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 8, 12, 20, 78, 79, 15, 30, 10, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 8, 12, 20, 78, 79, 15, 30, 37, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 8, 12, 20, 78, 79, 15, 4, 37, 83, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 8, 12, 20, 78, 79, 15, 4, 37, 39, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 5, 12, 20, 78, 79, 15, 4, 37, 39, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 5, 12, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 27, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 12, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 12, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 28, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 12, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 29, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 31, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 6, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 7, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 5, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 29, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 29, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 1, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 26, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 1, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 10, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 3, 12, 92]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 10, 4, 17, 11, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 3, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 10, 4, 17, 1, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 3, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 38, 10, 4, 17, 1, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 41, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 40, 37, 39, 22, 6, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 31, 37, 39, 22, 6, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 31, 37, 39, 22, 5, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 3, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 28, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 45, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 4, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 11, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 10, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 11, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 11, 20, 78, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 11, 20, 3, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 11, 20, 41, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 29, 20, 41, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 43, 20, 41, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 25]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 43, 20, 41, 79, 15, 31, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 43, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 43, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 26, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 43, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 5, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 27, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 6, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 6, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 5, 20, 41, 79, 15, 29, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 25, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 5, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 13, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 5, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 5, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 14, 2, 47, 25, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 41, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 41, 79, 50, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 51, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 5, 1, 26, 16, 32, 33, 51, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 37, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 32, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 53, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 5, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 53, 39, 22, 34, 9, 21, 42, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 38, 35, 17, 1, 26, 16, 5, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 53, 39, 22, 34, 9, 21, 29, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 13, 35, 17, 1, 26, 16, 5, 33, 40, 18, 36, 0, 49, 2, 47, 25, 20, 52, 79, 15, 11, 53, 39, 22, 34, 9, 21, 29, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 13, 35, 17, 1, 26, 16, 5, 33, 40, 18, 36, 0, 49, 2, 51, 25, 20, 52, 79, 15, 11, 53, 39, 22, 34, 9, 21, 29, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[23, 24, 48, 13, 35, 17, 1, 26, 16, 5, 33, 40, 18, 36, 0, 49, 2, 51, 25, 20, 52, 54, 15, 11, 53, 39, 22, 34, 9, 21, 29, 19, 46, 12, 45]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 5, 9, 11, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 29, 33, 34, 35, 36, 39, 40, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 11, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 29, 33, 34, 35, 36, 39, 40, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 11, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 29, 33, 34, 35, 36, 39, 7, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 11, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 29, 33, 34, 35, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 29, 33, 34, 35, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 35, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[10, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 35, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[10, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 11, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[10, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 14, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 14, 36, 39, 8, 45, 46, 48, 49, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 6, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 14, 36, 39, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 14, 36, 39, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 34, 14, 36, 3, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[0, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 10, 14, 36, 3, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 29, 33, 10, 14, 36, 3, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 6, 33, 10, 14, 36, 3, 8, 45, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 6, 33, 10, 14, 36, 3, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 1, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 6, 33, 10, 14, 36, 34, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 0, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 4, 6, 33, 10, 14, 36, 34, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 0, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 46, 48, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 46, 32, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 38, 32, 37, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 49, 36, 34, 8, 31, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 39, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 0, 9, 39, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 0, 9, 1, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 5, 9, 1, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 1, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 28, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 28, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 38, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 31, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 16, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 3, 8, 31, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 5, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 3, 8, 31, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 28, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 3, 8, 31, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 28, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 3, 8, 12, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 28, 17, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 7, 13, 15, 28, 55, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[11, 47, 2, 26, 9, 27, 56, 13, 15, 28, 55, 50, 19, 20, 21, 22, 23, 24, 25, 35, 6, 33, 10, 14, 36, 34, 8, 12, 49, 32, 48, 51, 52, 53, 54]</t>
+  </si>
+  <si>
+    <t>[ 0.  0.  0.  0. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[10.  0.  0.  0. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[10.  1.  0.  0. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[10.  1.  4.  0. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[10.  1.  4.  5. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 4.  1.  4.  2. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  4.  0. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 4.  0.  4.  2. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 4.   0.   3.5  2.  ... 20.  20.  20.  20. ]</t>
+  </si>
+  <si>
+    <t>[ 6.  0.  3.  3. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 8.  2.  2.  4. ... 20. 20. 20. 20.]</t>
+  </si>
+  <si>
+    <t>[ 7.5   0.    4.5   3.75 ... 20.   20.   20.   20.  ]</t>
+  </si>
+  <si>
+    <t>[ 6.9767  0.      6.593   3.4884 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 5.1613  0.      8.      2.5806 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 2.0588  0.      8.      1.0294 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.98  2.62  6.69  0.49 ... 20.   20.   20.   20.  ]</t>
+  </si>
+  <si>
+    <t>[ 0.7742  2.4516  6.7742  0.3871 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.3333  1.3333  7.3333  0.6667 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.4615  1.0769  7.4615  0.7308 ... 20.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.4615  1.0769  7.4615  0.7308 ...  0.     20.     20.     20.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.1034  1.1724  7.4138  0.5517 ...  0.     20.     19.9379 20.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.    0.4   7.8   0.   ...  0.   20.   19.64 20.  ]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.   8.   0.  ...  0.  20.  19.6 20. ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.7895  0.     ...  0.     20.     19.5579 20.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.7778  0.     ...  0.     20.     19.5556 20.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.   8.   0.  ...  0.  19.6 19.2 20. ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      8.1429  0.     ...  0.     19.0571 18.6857 19.8571]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.      7.9143  0.     ...  0.     17.9257 17.8336 19.2857]</t>
+  </si>
+  <si>
+    <t>[ 0.     1.    11.     0.    ...  0.    11.6   12.125 16.2  ]</t>
+  </si>
+  <si>
+    <t>[ 0.5     0.     12.0588  0.25   ...  0.     10.1794 10.6912 15.9412]</t>
+  </si>
+  <si>
+    <t>[ 0.5     0.     11.1111  0.25   ...  0.      9.7056 10.0278 15.2778]</t>
+  </si>
+  <si>
+    <t>[ 0.5     0.     11.1111  0.25   ...  0.      7.3833  7.7056 15.2778]</t>
+  </si>
+  <si>
+    <t>[ 0.5     0.     11.1111  0.25   ...  0.      0.      0.3222  7.8944]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.     10.6111  0.     ...  0.      0.      0.3222  6.7694]</t>
+  </si>
+  <si>
+    <t>[ 0.     1.    10.45   0.    ...  0.     0.     0.     6.125]</t>
+  </si>
+  <si>
+    <t>[ 0.5   0.   10.95  0.25 ...  0.    0.    0.    7.25]</t>
+  </si>
+  <si>
+    <t>[ 0.5   0.   14.5   0.25 ...  0.    0.    0.    7.25]</t>
+  </si>
+  <si>
+    <t>[ 3.   0.  12.   1.5 ...  0.   0.   0.   8.5]</t>
+  </si>
+  <si>
+    <t>[4.0169 1.0994 9.9937 2.0085 ... 0.     0.     0.     8.0465]</t>
+  </si>
+  <si>
+    <t>[ 6.8442  4.1558 11.6442  3.4221 ...  0.      0.      0.      6.7857]</t>
+  </si>
+  <si>
+    <t>[ 6.4004  3.6761 12.3085  3.2002 ...  0.      0.      0.      6.9836]</t>
+  </si>
+  <si>
+    <t>[ 3.   0.  13.2  1.5 ...  0.   0.   0.   8.5]</t>
+  </si>
+  <si>
+    <t>[ 0.  0. 15.  0. ...  0.  0.  0. 10.]</t>
+  </si>
+  <si>
+    <t>[ 0.      3.9344 16.2295  0.     ...  0.      0.      0.     10.1967]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.     16.6667  0.     ...  0.      0.      0.     10.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.     17.1429  0.     ...  0.      0.      0.     10.8571]</t>
+  </si>
+  <si>
+    <t>[ 1.1111  0.     16.9444  0.5556 ...  0.      0.      0.     11.0556]</t>
+  </si>
+  <si>
+    <t>[ 2.9032  2.5806 17.5     1.4516 ...  0.      0.      0.     11.2742]</t>
+  </si>
+  <si>
+    <t>[ 3.913   3.4783 17.5     1.9565 ...  0.      0.      0.     11.1957]</t>
+  </si>
+  <si>
+    <t>[ 5.8235  5.1765 17.5     2.9118 ...  0.      0.      0.     11.0471]</t>
+  </si>
+  <si>
+    <t>[ 9.8437  8.75   17.5     4.9219 ...  0.      0.      0.     10.7344]</t>
+  </si>
+  <si>
+    <t>[11.6667  0.     11.6667  5.8333 ...  0.      0.      0.      6.8333]</t>
+  </si>
+  <si>
+    <t>[11.6667  5.2659 11.6667  5.8333 ...  0.      0.      0.      7.8865]</t>
+  </si>
+  <si>
+    <t>[9.0904 0.     9.0904 4.5452 ... 0.     0.     0.     0.9078]</t>
+  </si>
+  <si>
+    <t>[ 8.6957  0.      8.6957  4.3478 ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 7.7859  7.7859  8.0292  3.8929 ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      9.3567  9.9415 -0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      9.2029  9.9275 -0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.982   8.6949  9.4309  0.991  ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 2.2302  8.6313  9.3687  1.1151 ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 2.0517  8.5941  9.4059  1.0258 ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 3.875  8.625  9.375  1.1   ...  0.     0.     0.    -0.   ]</t>
+  </si>
+  <si>
+    <t>[ 2.8976  9.6687  9.3916  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 3.325  9.175  9.925  0.    ...  0.     0.     0.    -0.   ]</t>
+  </si>
+  <si>
+    <t>[ 6.4417  5.8157 10.3252  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.4761  4.1376 10.552   0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[13.7989  6.3065  8.9789  2.408  ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.527   8.5887 10.054   0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.5354  9.3216  9.972   0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.5373  9.4876  9.9534  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[16.2689  9.6677  9.9698  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[14.943  10.352  10.6755  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[14.1969  9.7532 11.0472  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[14.1268  9.7593 11.0825  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.8736 11.1537 12.2881  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[11.3929 11.4159 12.5284  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 9.787   9.8809 13.2705  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 9.2529  9.3704 13.5173  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  2.2558 16.9567  0.     ...  0.      0.      0.     -0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  2.2558 16.9567  0.     ...  2.9576  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  0.     16.9567  0.     ...  3.4087  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  0.     16.9567  0.     ...  3.6526  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  0.     15.7375  0.     ...  4.6279  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  1.0879 11.9297  0.     ...  8.2181  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  1.0879 10.9338  0.     ...  9.214   0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.8119 11.2958  0.     ...  9.0692  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.6417 11.3171  0.     ...  9.0819  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      2.0976 10.7244  0.     ...  9.5835  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  1.5805  9.9487  0.     ... 10.1006  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.8099  2.2558  8.5982  0.     ... 11.316   0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 2.4633  2.9092  6.638   0.6534 ... 13.0149  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.5656  3.4616  6.4308  1.2058 ... 13.2911  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      2.6787  7.0397  0.423  ... 13.1519  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.6691  7.1519  0.423  ... 13.2417  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.1857  7.3936  0.     ... 13.0967  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.1857  0.      7.3936  0.     ... 13.0967  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.9864  0.     ... 12.741   0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.     12.4715  0.     ... 15.4321  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.     10.0905  0.     ... 14.0034  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      9.0493  0.     ... 13.3787  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.9756  0.     ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.1407  0.     ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.6249  0.      5.5158  0.     ... 16.7102  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 1.2712  1.7683  4.1012  0.     ... 16.9931  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      3.1808  3.9599  0.     ... 17.0214  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      1.7683  5.3723  0.     ... 16.7389  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.3826  0.     ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.8245  0.423  ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.3879  0.423  ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      7.1407  0.423  ... 16.3852  0.      0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      6.8564  0.     ... 16.3852  0.0568  0.      0.    ]</t>
+  </si>
+  <si>
+    <t>[ 0.      0.      6.8564  0.     ... 16.3852  2.5143  2.4574  0.    ]</t>
   </si>
 </sst>
 </file>
@@ -401,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>-64</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,10 +1249,2236 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>683.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5">
+        <v>623.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>603.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>-88</v>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>601.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>556.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9">
+        <v>475.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>472.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11">
+        <v>470.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>441.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13">
+        <v>436.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15">
+        <v>401.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16">
+        <v>399.675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17">
+        <v>395.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20">
+        <v>371.3343023255814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <v>360.8387096774194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22">
+        <v>342.3014705882354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23">
+        <v>338.7375000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24">
+        <v>338.491935483871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25">
+        <v>337.5564516129032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26">
+        <v>333.5166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27">
+        <v>311.9333333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28">
+        <v>311.0326923076922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29">
+        <v>291.0326923076922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30">
+        <v>289.2344827586208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31">
+        <v>287.0800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>282.2800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33">
+        <v>281.7500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <v>281.5394736842106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35">
+        <v>281.5277777777778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36">
+        <v>279.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37">
+        <v>276.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38">
+        <v>270.8849999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39">
+        <v>237.675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40">
+        <v>232.8794117647057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41">
+        <v>232.8794117647057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42">
+        <v>228.7805555555555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43">
+        <v>194.2805555555555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44">
+        <v>159.7805555555555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45">
+        <v>140.6277777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46">
+        <v>127.7249999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47">
+        <v>121.1972222222221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48">
+        <v>111.3277777777777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49">
+        <v>79.94861111111122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50">
+        <v>79.82361111111123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51">
+        <v>79.66250000000014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52">
+        <v>74.39375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <v>64.50000000000016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54">
+        <v>64.25000000000013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55">
+        <v>64.25000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56">
+        <v>44.50000000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57">
+        <v>36.99999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58">
+        <v>32.84989429175479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59">
+        <v>28.54025974025978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60">
+        <v>28.29321663019698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61">
+        <v>26.40000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62">
+        <v>23.99999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63">
+        <v>23.11475409836062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64">
+        <v>20.66666666666664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65">
+        <v>19.71428571428566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66">
+        <v>19.71428571428563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>19.66666666666659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68">
+        <v>19.38709677419348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69">
+        <v>18.82608695652167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70">
+        <v>18.74117647058817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71">
+        <v>18.56249999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72">
+        <v>17.04687499999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73">
+        <v>16.49999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74">
+        <v>15.44681742043549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75">
+        <v>14.18131530424093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76">
+        <v>13.82608695652173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77">
+        <v>11.46228710462289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78">
+        <v>11.35087719298248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79">
+        <v>11.12092391304351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80">
+        <v>10.98769191929099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81">
+        <v>10.97100733634314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82">
+        <v>10.93623154981553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83">
+        <v>10.28203125000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84">
+        <v>10.20033885542175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85">
+        <v>9.74921875000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86">
+        <v>9.601795392953953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87">
+        <v>9.601795392953953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88">
+        <v>8.370129942744702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89">
+        <v>8.269875478927231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90">
+        <v>7.17328084832906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91">
+        <v>7.124342261433784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92">
+        <v>7.113256987577653</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93">
+        <v>6.480362537764361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94">
+        <v>6.480362537764361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95">
+        <v>6.480362537764361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96">
+        <v>5.87731354504574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97">
+        <v>5.745093695191827</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98">
+        <v>5.710304475941063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99">
+        <v>4.638823167044728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100">
+        <v>4.420321617599149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101">
+        <v>4.175198799803041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102">
+        <v>4.175198799803038</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103">
+        <v>4.175198799803036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104">
+        <v>4.175198799803036</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105">
+        <v>4.175198799803021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106">
+        <v>4.175198799803019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107">
+        <v>4.175198799803019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108">
+        <v>4.175198799803014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109">
+        <v>4.17519879980301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110">
+        <v>4.17519879980301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111">
+        <v>4.17519879980301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112">
+        <v>4.175198799803006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113">
+        <v>4.093679638176462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114">
+        <v>2.957568905588315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115">
+        <v>2.957568905588309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116">
+        <v>2.957568905588309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117">
+        <v>2.957568905588308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118">
+        <v>-4.263256414560601e-14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>241</v>
+      </c>
+      <c r="D119">
+        <v>3075.086923695931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120">
+        <v>3010.79767703718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121">
+        <v>3010.492891105236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122">
+        <v>2970.870719952446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>245</v>
+      </c>
+      <c r="D123">
+        <v>2877.171613351473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124">
+        <v>2847.892783761368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125">
+        <v>2843.621519105162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+      <c r="D126">
+        <v>2841.391651070472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>249</v>
+      </c>
+      <c r="D127">
+        <v>2823.792229150003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>250</v>
+      </c>
+      <c r="D128">
+        <v>2813.708735106901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129">
+        <v>2813.708735106901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130">
+        <v>2758.337881236589</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131">
+        <v>2696.263347448642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>253</v>
+      </c>
+      <c r="D132">
+        <v>2685.837049123668</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>254</v>
+      </c>
+      <c r="D133">
+        <v>2626.516472486567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134">
+        <v>2591.065379864957</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135">
+        <v>2590.645313787248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136">
+        <v>2578.620597994387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>257</v>
+      </c>
+      <c r="D137">
+        <v>2567.949709155319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>257</v>
+      </c>
+      <c r="D138">
+        <v>2567.949709155318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139">
+        <v>2565.726607313846</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>259</v>
+      </c>
+      <c r="D140">
+        <v>2564.605322643538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>260</v>
+      </c>
+      <c r="D141">
+        <v>2546.152231540213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142">
+        <v>2538.083055099782</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>261</v>
+      </c>
+      <c r="D143">
+        <v>2538.083055099782</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>261</v>
+      </c>
+      <c r="D144">
+        <v>2538.083055099782</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145" t="s">
+        <v>261</v>
+      </c>
+      <c r="D145">
+        <v>2538.083055099782</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146">
+        <v>2401.985499289387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147">
+        <v>2383.82649042374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>264</v>
+      </c>
+      <c r="D148">
+        <v>2375.702203489105</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149">
+        <v>2367.744785947274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150">
+        <v>2366.332347741642</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151">
+        <v>2329.608954395243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>263</v>
+      </c>
+      <c r="D152">
+        <v>2298.074003396133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153">
+        <v>2296.059323440809</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154">
+        <v>2293.921752404124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155">
+        <v>2290.907804495131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156">
+        <v>2175.729373423235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>269</v>
+      </c>
+      <c r="D157">
+        <v>2175.034477786965</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D158">
+        <v>2175.034477786965</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D159">
+        <v>2163.245384783761</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160">
+        <v>2162.998185167368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>263</v>
+      </c>
+      <c r="D161">
+        <v>2162.152225262343</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>272</v>
+      </c>
+      <c r="D162">
+        <v>2161.86799284195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>273</v>
+      </c>
+      <c r="D163">
+        <v>2161.86799284195</v>
       </c>
     </row>
   </sheetData>
